--- a/public/template_excel/komoditas.xlsx
+++ b/public/template_excel/komoditas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48427B1-FE9A-4CF0-BF4C-4E44A187D53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B1665C-7508-470D-B2F4-BEDE621D280B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="-14355" windowWidth="24750" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="komoditas" sheetId="1" r:id="rId1"/>
@@ -324,14 +324,20 @@
   </sheetPr>
   <dimension ref="A1:H400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -364,7 +370,7 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
